--- a/knowledge/ics-attack-v13.1-mitigations.xlsx
+++ b/knowledge/ics-attack-v13.1-mitigations.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\autos2_GitHub\security-risk-assessment\knowledge\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="techniques addressed" sheetId="2" r:id="rId2"/>
     <sheet name="citations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2481,8 +2486,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2553,11 +2558,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2604,7 +2617,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2636,9 +2649,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2670,6 +2684,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2845,14 +2860,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="51.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2878,7 +2899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2904,7 +2925,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2930,7 +2951,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2956,7 +2977,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2979,7 +3000,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3005,7 +3026,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3031,7 +3052,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3057,7 +3078,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3083,7 +3104,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3109,7 +3130,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3132,7 +3153,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3158,7 +3179,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3184,7 +3205,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3207,7 +3228,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3233,7 +3254,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3259,7 +3280,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -3285,7 +3306,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -3308,7 +3329,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -3334,7 +3355,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -3357,7 +3378,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -3380,7 +3401,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -3403,7 +3424,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -3426,7 +3447,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -3452,7 +3473,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3478,7 +3499,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -3501,7 +3522,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -3524,7 +3545,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -3550,7 +3571,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -3576,7 +3597,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -3602,7 +3623,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -3625,7 +3646,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -3648,7 +3669,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -3674,7 +3695,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -3700,7 +3721,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -3726,7 +3747,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -3752,7 +3773,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -3778,7 +3799,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -3801,7 +3822,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -3824,7 +3845,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -3847,7 +3868,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -3870,7 +3891,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -3893,7 +3914,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -3916,7 +3937,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -3939,7 +3960,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -3965,7 +3986,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -3991,7 +4012,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -4014,7 +4035,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -4037,7 +4058,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -4060,7 +4081,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -4083,7 +4104,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -4109,7 +4130,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -4135,7 +4156,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -4218,14 +4239,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H325"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="6" max="6" width="54.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>256</v>
       </c>
@@ -4251,7 +4279,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4277,7 +4305,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4303,7 +4331,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4329,7 +4357,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4355,7 +4383,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4381,7 +4409,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4407,7 +4435,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4433,7 +4461,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4459,7 +4487,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4485,7 +4513,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4511,7 +4539,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4537,7 +4565,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -4563,7 +4591,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -4589,7 +4617,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -4615,7 +4643,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -4641,7 +4669,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -4667,7 +4695,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -4693,7 +4721,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -4719,7 +4747,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -4745,7 +4773,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -4771,7 +4799,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -4797,7 +4825,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -4823,7 +4851,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -4849,7 +4877,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -4875,7 +4903,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -4901,7 +4929,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -4927,7 +4955,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -4953,7 +4981,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -4979,7 +5007,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -5005,7 +5033,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -5031,7 +5059,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -5057,7 +5085,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -5083,7 +5111,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -5109,7 +5137,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -5135,7 +5163,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -5161,7 +5189,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -5187,7 +5215,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -5213,7 +5241,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -5239,7 +5267,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -5265,7 +5293,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -5291,7 +5319,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -5317,7 +5345,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -5343,7 +5371,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -5369,7 +5397,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -5395,7 +5423,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -5421,7 +5449,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -5447,7 +5475,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -5473,7 +5501,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -5499,7 +5527,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -5525,7 +5553,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -5551,7 +5579,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -5577,7 +5605,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -5603,7 +5631,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -5629,7 +5657,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -5655,7 +5683,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -5681,7 +5709,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -5707,7 +5735,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -5733,7 +5761,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -5759,7 +5787,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -5785,7 +5813,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -5811,7 +5839,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -5837,7 +5865,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -5863,7 +5891,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -5889,7 +5917,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -5915,7 +5943,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -5941,7 +5969,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -5967,7 +5995,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -5993,7 +6021,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -6019,7 +6047,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -6045,7 +6073,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -6071,7 +6099,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -6097,7 +6125,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -6123,7 +6151,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -6149,7 +6177,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -6175,7 +6203,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -6201,7 +6229,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -6227,7 +6255,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -6253,7 +6281,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -6279,7 +6307,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -6305,7 +6333,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -6331,7 +6359,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -6357,7 +6385,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -6383,7 +6411,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -6409,7 +6437,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -6435,7 +6463,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -6461,7 +6489,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -6487,7 +6515,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -6513,7 +6541,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -6539,7 +6567,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -6565,7 +6593,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -6591,7 +6619,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -6617,7 +6645,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -6643,7 +6671,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -6669,7 +6697,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>21</v>
       </c>
@@ -6695,7 +6723,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>21</v>
       </c>
@@ -6721,7 +6749,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -6747,7 +6775,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>21</v>
       </c>
@@ -6773,7 +6801,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>21</v>
       </c>
@@ -6799,7 +6827,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>21</v>
       </c>
@@ -6825,7 +6853,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>21</v>
       </c>
@@ -6851,7 +6879,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>21</v>
       </c>
@@ -6877,7 +6905,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -6903,7 +6931,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -6929,7 +6957,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>22</v>
       </c>
@@ -6955,7 +6983,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>22</v>
       </c>
@@ -6981,7 +7009,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>22</v>
       </c>
@@ -7007,7 +7035,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -7033,7 +7061,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>23</v>
       </c>
@@ -7059,7 +7087,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>23</v>
       </c>
@@ -7085,7 +7113,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>23</v>
       </c>
@@ -7111,7 +7139,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>23</v>
       </c>
@@ -7137,7 +7165,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>23</v>
       </c>
@@ -7163,7 +7191,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>23</v>
       </c>
@@ -7189,7 +7217,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>24</v>
       </c>
@@ -7215,7 +7243,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>24</v>
       </c>
@@ -7241,7 +7269,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>24</v>
       </c>
@@ -7267,7 +7295,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>24</v>
       </c>
@@ -7293,7 +7321,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -7319,7 +7347,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -7345,7 +7373,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>25</v>
       </c>
@@ -7371,7 +7399,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>25</v>
       </c>
@@ -7397,7 +7425,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -7423,7 +7451,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>25</v>
       </c>
@@ -7449,7 +7477,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>25</v>
       </c>
@@ -7475,7 +7503,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -7501,7 +7529,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -7527,7 +7555,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>26</v>
       </c>
@@ -7553,7 +7581,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>26</v>
       </c>
@@ -7579,7 +7607,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>26</v>
       </c>
@@ -7605,7 +7633,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>26</v>
       </c>
@@ -7631,7 +7659,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>26</v>
       </c>
@@ -7657,7 +7685,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>26</v>
       </c>
@@ -7683,7 +7711,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>26</v>
       </c>
@@ -7709,7 +7737,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>26</v>
       </c>
@@ -7735,7 +7763,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>26</v>
       </c>
@@ -7761,7 +7789,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>26</v>
       </c>
@@ -7787,7 +7815,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>26</v>
       </c>
@@ -7813,7 +7841,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -7839,7 +7867,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>26</v>
       </c>
@@ -7865,7 +7893,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>27</v>
       </c>
@@ -7891,7 +7919,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>27</v>
       </c>
@@ -7917,7 +7945,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>27</v>
       </c>
@@ -7943,7 +7971,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>27</v>
       </c>
@@ -7969,7 +7997,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>27</v>
       </c>
@@ -7995,7 +8023,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>27</v>
       </c>
@@ -8021,7 +8049,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>27</v>
       </c>
@@ -8047,7 +8075,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>27</v>
       </c>
@@ -8073,7 +8101,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>27</v>
       </c>
@@ -8099,7 +8127,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>27</v>
       </c>
@@ -8125,7 +8153,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>27</v>
       </c>
@@ -8151,7 +8179,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>27</v>
       </c>
@@ -8177,7 +8205,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>27</v>
       </c>
@@ -8203,7 +8231,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>28</v>
       </c>
@@ -8229,7 +8257,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>29</v>
       </c>
@@ -8255,7 +8283,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>30</v>
       </c>
@@ -8281,7 +8309,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>30</v>
       </c>
@@ -8307,7 +8335,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -8333,7 +8361,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>31</v>
       </c>
@@ -8359,7 +8387,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>32</v>
       </c>
@@ -8385,7 +8413,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>32</v>
       </c>
@@ -8411,7 +8439,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>32</v>
       </c>
@@ -8437,7 +8465,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>32</v>
       </c>
@@ -8463,7 +8491,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>32</v>
       </c>
@@ -8489,7 +8517,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>32</v>
       </c>
@@ -8515,7 +8543,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>33</v>
       </c>
@@ -8541,7 +8569,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>33</v>
       </c>
@@ -8567,7 +8595,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>33</v>
       </c>
@@ -8593,7 +8621,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>34</v>
       </c>
@@ -8619,7 +8647,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>34</v>
       </c>
@@ -8645,7 +8673,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>34</v>
       </c>
@@ -8671,7 +8699,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>34</v>
       </c>
@@ -8697,7 +8725,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>34</v>
       </c>
@@ -8723,7 +8751,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>34</v>
       </c>
@@ -8749,7 +8777,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>34</v>
       </c>
@@ -8775,7 +8803,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>34</v>
       </c>
@@ -8801,7 +8829,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>34</v>
       </c>
@@ -8827,7 +8855,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>34</v>
       </c>
@@ -8853,7 +8881,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>34</v>
       </c>
@@ -8879,7 +8907,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>34</v>
       </c>
@@ -8905,7 +8933,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>34</v>
       </c>
@@ -8931,7 +8959,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>34</v>
       </c>
@@ -8957,7 +8985,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>34</v>
       </c>
@@ -8983,7 +9011,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>34</v>
       </c>
@@ -9009,7 +9037,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>34</v>
       </c>
@@ -9035,7 +9063,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>34</v>
       </c>
@@ -9061,7 +9089,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>34</v>
       </c>
@@ -9087,7 +9115,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>34</v>
       </c>
@@ -9113,7 +9141,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>34</v>
       </c>
@@ -9139,7 +9167,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>34</v>
       </c>
@@ -9165,7 +9193,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>34</v>
       </c>
@@ -9191,7 +9219,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>35</v>
       </c>
@@ -9217,7 +9245,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>35</v>
       </c>
@@ -9243,7 +9271,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>35</v>
       </c>
@@ -9269,7 +9297,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>35</v>
       </c>
@@ -9295,7 +9323,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>35</v>
       </c>
@@ -9321,7 +9349,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>35</v>
       </c>
@@ -9347,7 +9375,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>35</v>
       </c>
@@ -9373,7 +9401,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>36</v>
       </c>
@@ -9399,7 +9427,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>36</v>
       </c>
@@ -9425,7 +9453,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>36</v>
       </c>
@@ -9451,7 +9479,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>36</v>
       </c>
@@ -9477,7 +9505,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>36</v>
       </c>
@@ -9503,7 +9531,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>36</v>
       </c>
@@ -9529,7 +9557,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>36</v>
       </c>
@@ -9555,7 +9583,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>36</v>
       </c>
@@ -9581,7 +9609,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>36</v>
       </c>
@@ -9607,7 +9635,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>36</v>
       </c>
@@ -9633,7 +9661,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>36</v>
       </c>
@@ -9659,7 +9687,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>36</v>
       </c>
@@ -9685,7 +9713,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>36</v>
       </c>
@@ -9711,7 +9739,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>36</v>
       </c>
@@ -9737,7 +9765,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>36</v>
       </c>
@@ -9763,7 +9791,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>36</v>
       </c>
@@ -9789,7 +9817,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>36</v>
       </c>
@@ -9815,7 +9843,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>36</v>
       </c>
@@ -9841,7 +9869,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>36</v>
       </c>
@@ -9867,7 +9895,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>36</v>
       </c>
@@ -9893,7 +9921,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>36</v>
       </c>
@@ -9919,7 +9947,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>36</v>
       </c>
@@ -9945,7 +9973,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>36</v>
       </c>
@@ -9971,7 +9999,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>36</v>
       </c>
@@ -9997,7 +10025,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>36</v>
       </c>
@@ -10023,7 +10051,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>36</v>
       </c>
@@ -10049,7 +10077,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>36</v>
       </c>
@@ -10075,7 +10103,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>36</v>
       </c>
@@ -10101,7 +10129,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>37</v>
       </c>
@@ -10127,7 +10155,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>38</v>
       </c>
@@ -10153,7 +10181,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>39</v>
       </c>
@@ -10179,7 +10207,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>39</v>
       </c>
@@ -10205,7 +10233,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>39</v>
       </c>
@@ -10231,7 +10259,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>39</v>
       </c>
@@ -10257,7 +10285,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>39</v>
       </c>
@@ -10283,7 +10311,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>39</v>
       </c>
@@ -10309,7 +10337,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>39</v>
       </c>
@@ -10335,7 +10363,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>39</v>
       </c>
@@ -10361,7 +10389,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>39</v>
       </c>
@@ -10387,7 +10415,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>39</v>
       </c>
@@ -10413,7 +10441,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>39</v>
       </c>
@@ -10439,7 +10467,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>39</v>
       </c>
@@ -10465,7 +10493,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>40</v>
       </c>
@@ -10491,7 +10519,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>40</v>
       </c>
@@ -10517,7 +10545,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>40</v>
       </c>
@@ -10543,7 +10571,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>40</v>
       </c>
@@ -10569,7 +10597,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>40</v>
       </c>
@@ -10595,7 +10623,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>41</v>
       </c>
@@ -10621,7 +10649,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>41</v>
       </c>
@@ -10647,7 +10675,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>41</v>
       </c>
@@ -10673,7 +10701,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>41</v>
       </c>
@@ -10699,7 +10727,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>41</v>
       </c>
@@ -10725,7 +10753,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>41</v>
       </c>
@@ -10751,7 +10779,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>42</v>
       </c>
@@ -10777,7 +10805,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>42</v>
       </c>
@@ -10803,7 +10831,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>42</v>
       </c>
@@ -10829,7 +10857,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>42</v>
       </c>
@@ -10855,7 +10883,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>42</v>
       </c>
@@ -10881,7 +10909,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>42</v>
       </c>
@@ -10907,7 +10935,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>43</v>
       </c>
@@ -10933,7 +10961,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>43</v>
       </c>
@@ -10959,7 +10987,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>43</v>
       </c>
@@ -10985,7 +11013,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>43</v>
       </c>
@@ -11011,7 +11039,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>43</v>
       </c>
@@ -11037,7 +11065,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>43</v>
       </c>
@@ -11063,7 +11091,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>43</v>
       </c>
@@ -11089,7 +11117,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>43</v>
       </c>
@@ -11115,7 +11143,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>44</v>
       </c>
@@ -11141,7 +11169,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>45</v>
       </c>
@@ -11167,7 +11195,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>46</v>
       </c>
@@ -11193,7 +11221,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>46</v>
       </c>
@@ -11219,7 +11247,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>46</v>
       </c>
@@ -11245,7 +11273,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>47</v>
       </c>
@@ -11271,7 +11299,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>48</v>
       </c>
@@ -11297,7 +11325,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>48</v>
       </c>
@@ -11323,7 +11351,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>50</v>
       </c>
@@ -11349,7 +11377,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>50</v>
       </c>
@@ -11375,7 +11403,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>50</v>
       </c>
@@ -11401,7 +11429,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>50</v>
       </c>
@@ -11427,7 +11455,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>50</v>
       </c>
@@ -11453,7 +11481,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>50</v>
       </c>
@@ -11479,7 +11507,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>50</v>
       </c>
@@ -11505,7 +11533,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>50</v>
       </c>
@@ -11531,7 +11559,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>50</v>
       </c>
@@ -11557,7 +11585,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>50</v>
       </c>
@@ -11583,7 +11611,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>50</v>
       </c>
@@ -11609,7 +11637,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>50</v>
       </c>
@@ -11635,7 +11663,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>50</v>
       </c>
@@ -11661,7 +11689,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>50</v>
       </c>
@@ -11687,7 +11715,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>50</v>
       </c>
@@ -11713,7 +11741,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>50</v>
       </c>
@@ -11739,7 +11767,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>50</v>
       </c>
@@ -11765,7 +11793,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>51</v>
       </c>
@@ -11791,7 +11819,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>51</v>
       </c>
@@ -11817,7 +11845,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>51</v>
       </c>
@@ -11843,7 +11871,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>51</v>
       </c>
@@ -11869,7 +11897,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>51</v>
       </c>
@@ -11895,7 +11923,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>51</v>
       </c>
@@ -11921,7 +11949,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>51</v>
       </c>
@@ -11947,7 +11975,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>52</v>
       </c>
@@ -11973,7 +12001,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>53</v>
       </c>
@@ -11999,7 +12027,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>53</v>
       </c>
@@ -12025,7 +12053,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>53</v>
       </c>
@@ -12051,7 +12079,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>54</v>
       </c>
@@ -12077,7 +12105,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>54</v>
       </c>
@@ -12103,7 +12131,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>54</v>
       </c>
@@ -12129,7 +12157,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>54</v>
       </c>
@@ -12155,7 +12183,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>54</v>
       </c>
@@ -12181,7 +12209,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>54</v>
       </c>
@@ -12207,7 +12235,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>54</v>
       </c>
@@ -12233,7 +12261,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>54</v>
       </c>
@@ -12259,7 +12287,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>55</v>
       </c>
@@ -12285,7 +12313,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>55</v>
       </c>
@@ -12311,7 +12339,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>55</v>
       </c>
@@ -12337,7 +12365,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>55</v>
       </c>
@@ -12363,7 +12391,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>55</v>
       </c>
@@ -12389,7 +12417,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>55</v>
       </c>
@@ -12415,7 +12443,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>56</v>
       </c>
@@ -12441,7 +12469,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>56</v>
       </c>
@@ -12467,7 +12495,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>56</v>
       </c>
@@ -12493,7 +12521,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>56</v>
       </c>
@@ -12519,7 +12547,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>57</v>
       </c>
@@ -12545,7 +12573,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>57</v>
       </c>
@@ -12571,7 +12599,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>58</v>
       </c>
@@ -12597,7 +12625,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>58</v>
       </c>
@@ -12623,7 +12651,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>58</v>
       </c>
@@ -12649,7 +12677,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>59</v>
       </c>
@@ -12681,14 +12709,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>624</v>
       </c>
@@ -12699,7 +12727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>626</v>
       </c>
@@ -12710,7 +12738,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>627</v>
       </c>
@@ -12721,7 +12749,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>628</v>
       </c>
@@ -12732,7 +12760,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>629</v>
       </c>
@@ -12743,7 +12771,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>630</v>
       </c>
@@ -12754,7 +12782,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>631</v>
       </c>
@@ -12765,7 +12793,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>632</v>
       </c>
@@ -12776,7 +12804,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>633</v>
       </c>
@@ -12787,7 +12815,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>634</v>
       </c>
@@ -12798,7 +12826,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>635</v>
       </c>
@@ -12809,7 +12837,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>636</v>
       </c>
@@ -12820,7 +12848,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>637</v>
       </c>
@@ -12831,7 +12859,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>638</v>
       </c>
@@ -12842,7 +12870,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>639</v>
       </c>
@@ -12853,7 +12881,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>640</v>
       </c>
@@ -12864,7 +12892,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>641</v>
       </c>
@@ -12875,7 +12903,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>642</v>
       </c>
@@ -12886,7 +12914,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>643</v>
       </c>
@@ -12897,7 +12925,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>644</v>
       </c>
@@ -12908,7 +12936,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>645</v>
       </c>
@@ -12919,7 +12947,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>646</v>
       </c>
@@ -12930,7 +12958,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>647</v>
       </c>
@@ -12941,7 +12969,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>648</v>
       </c>
@@ -12952,7 +12980,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>649</v>
       </c>
@@ -12963,7 +12991,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>650</v>
       </c>
@@ -12974,7 +13002,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>651</v>
       </c>
@@ -12985,7 +13013,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>652</v>
       </c>
@@ -12996,7 +13024,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>653</v>
       </c>
@@ -13007,7 +13035,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>654</v>
       </c>
@@ -13018,7 +13046,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>655</v>
       </c>
@@ -13029,7 +13057,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>656</v>
       </c>
@@ -13040,7 +13068,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>657</v>
       </c>
@@ -13051,7 +13079,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>658</v>
       </c>
@@ -13062,7 +13090,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>659</v>
       </c>
@@ -13073,7 +13101,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>660</v>
       </c>
@@ -13084,7 +13112,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>661</v>
       </c>
@@ -13095,7 +13123,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>662</v>
       </c>
@@ -13106,7 +13134,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>663</v>
       </c>
@@ -13117,7 +13145,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>659</v>
       </c>
@@ -13128,7 +13156,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>641</v>
       </c>
@@ -13139,7 +13167,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>664</v>
       </c>
@@ -13150,7 +13178,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>649</v>
       </c>
@@ -13161,7 +13189,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>665</v>
       </c>
@@ -13172,7 +13200,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>626</v>
       </c>
@@ -13183,7 +13211,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>635</v>
       </c>
@@ -13194,7 +13222,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>655</v>
       </c>
@@ -13205,7 +13233,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>666</v>
       </c>
@@ -13216,7 +13244,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>667</v>
       </c>
@@ -13227,7 +13255,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>668</v>
       </c>
@@ -13238,7 +13266,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>669</v>
       </c>
@@ -13249,7 +13277,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>630</v>
       </c>
@@ -13260,7 +13288,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>633</v>
       </c>
